--- a/medical hours requirements.xlsx
+++ b/medical hours requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10768192\Desktop\pbischoff3.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9984DD9A-D878-4484-A842-D07CE2DB4A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882665A9-2522-49EB-9C56-5ADAD5669E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A62396B-C8B6-493D-BCDE-C1ECAF74D274}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
